--- a/dataset/dataset_tables/skoda_warehouse.xlsx
+++ b/dataset/dataset_tables/skoda_warehouse.xlsx
@@ -1,45 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\micha\homeworks\NLP\AgentToBeNamed\dataset\dataset_tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C688CD-EBF4-4631-8358-684106EC0280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="17250" yWindow="5715" windowWidth="11115" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Part Description</t>
-  </si>
-  <si>
-    <t>Supplier Information</t>
-  </si>
-  <si>
-    <t>Quantity in Stock</t>
-  </si>
-  <si>
-    <t>Shelf Location</t>
-  </si>
-  <si>
     <t>Reorder Level</t>
   </si>
   <si>
-    <t>Last Restock Date</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
     <t>SK-1000</t>
   </si>
   <si>
@@ -164,13 +149,34 @@
   </si>
   <si>
     <t>2023-03-31</t>
+  </si>
+  <si>
+    <t>quantity in stock</t>
+  </si>
+  <si>
+    <t>shelf Location</t>
+  </si>
+  <si>
+    <t>Last restock date</t>
+  </si>
+  <si>
+    <t>unit price</t>
+  </si>
+  <si>
+    <t>Part description</t>
+  </si>
+  <si>
+    <t>Supplier information</t>
+  </si>
+  <si>
+    <t>Part number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +239,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +291,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -311,6 +325,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -345,9 +360,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,268 +536,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>577</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>288</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>532</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>266</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>48.97</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4">
         <v>804</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>402</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>53.91</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>324</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>339.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>976</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>488</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>130.23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>130.22999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>216.06</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>943</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>472</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>283.11</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>650</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>325</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>431.67</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>366.25</v>
